--- a/public/tables/Brother_814_Needle_Bar_Mechanism.xlsx
+++ b/public/tables/Brother_814_Needle_Bar_Mechanism.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thisi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmtcd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CE8D45-113C-418F-8671-4DE5AAF80B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5979B772-9C98-4B0F-99F1-7C2BE73E5DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{12C7C16B-DC7D-41E9-9C73-F27D2CE3236A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12C7C16B-DC7D-41E9-9C73-F27D2CE3236A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,18 +36,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
-    <t>Ref. No.</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
-    <t>Name of Parts</t>
-  </si>
-  <si>
     <t>5-1</t>
   </si>
   <si>
@@ -261,6 +250,15 @@
   </si>
   <si>
     <t>Needle DPx5 (#14)</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Part No.</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -659,29 +657,29 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -695,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -709,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -717,13 +715,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -737,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -745,13 +743,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -759,13 +757,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -773,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -787,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -801,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -815,13 +813,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -829,13 +827,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,13 +841,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -857,181 +855,181 @@
         <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1039,128 +1037,128 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1168,16 +1166,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1185,16 +1183,16 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
